--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Boomlist 2024/RFID_BOM_240713 V3.01 (2).xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Boomlist 2024/RFID_BOM_240713 V3.01 (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Gia Công\Boomlist 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Gia Công\Boomlist 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB958083-E684-4338-A444-C6FA83539703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B20FCD-00A2-4CEA-A94B-7996128C3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13935" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="240813" sheetId="1" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1393,12 +1393,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1410,9 +1404,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3556,9 +3547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,10 +3558,10 @@
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="80.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="80.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="17.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="43.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" style="1" customWidth="1"/>
@@ -3609,7 +3600,7 @@
       <c r="K1" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="39" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3617,7 +3608,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="51" t="s">
         <v>279</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3642,8 +3633,8 @@
         <v>1</v>
       </c>
       <c r="J2" s="5">
-        <f>I2*1500</f>
-        <v>1500</v>
+        <f>I2*1200</f>
+        <v>1200</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>139</v>
@@ -3653,7 +3644,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="6" t="s">
         <v>169</v>
       </c>
@@ -3676,8 +3667,8 @@
         <v>2</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J34" si="0">I3*1500</f>
-        <v>3000</v>
+        <f t="shared" ref="J3:J41" si="0">I3*1200</f>
+        <v>2400</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>143</v>
@@ -3687,7 +3678,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
@@ -3711,7 +3702,7 @@
       </c>
       <c r="J4" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>138</v>
@@ -3721,7 +3712,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="6" t="s">
         <v>167</v>
       </c>
@@ -3745,7 +3736,7 @@
       </c>
       <c r="J5" s="5">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>141</v>
@@ -3755,7 +3746,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="6" t="s">
         <v>168</v>
       </c>
@@ -3779,7 +3770,7 @@
       </c>
       <c r="J6" s="5">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>142</v>
@@ -3789,7 +3780,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="6" t="s">
         <v>166</v>
       </c>
@@ -3813,7 +3804,7 @@
       </c>
       <c r="J7" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>140</v>
@@ -3823,7 +3814,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="6" t="s">
         <v>165</v>
       </c>
@@ -3847,7 +3838,7 @@
       </c>
       <c r="J8" s="5">
         <f t="shared" si="0"/>
-        <v>16500</v>
+        <v>13200</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>136</v>
@@ -3858,7 +3849,7 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -3882,7 +3873,7 @@
       </c>
       <c r="J9" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>137</v>
@@ -3892,7 +3883,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="10" t="s">
         <v>175</v>
       </c>
@@ -3916,7 +3907,7 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>135</v>
@@ -3926,7 +3917,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3950,7 +3941,7 @@
       </c>
       <c r="J11" s="5">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>144</v>
@@ -3960,7 +3951,7 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="6" t="s">
         <v>177</v>
       </c>
@@ -3984,7 +3975,7 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>145</v>
@@ -3994,7 +3985,7 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -4018,7 +4009,7 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>146</v>
@@ -4028,7 +4019,7 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
@@ -4052,7 +4043,7 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>148</v>
@@ -4062,7 +4053,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
         <v>37</v>
@@ -4080,7 +4071,7 @@
       </c>
       <c r="J15" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>149</v>
@@ -4090,7 +4081,7 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="6" t="s">
         <v>170</v>
       </c>
@@ -4114,7 +4105,7 @@
       </c>
       <c r="J16" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>151</v>
@@ -4124,7 +4115,7 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
@@ -4148,7 +4139,7 @@
       </c>
       <c r="J17" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>152</v>
@@ -4158,7 +4149,7 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
@@ -4182,7 +4173,7 @@
       </c>
       <c r="J18" s="5">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>154</v>
@@ -4192,7 +4183,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="6" t="s">
         <v>174</v>
       </c>
@@ -4216,7 +4207,7 @@
       </c>
       <c r="J19" s="5">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>158</v>
@@ -4226,7 +4217,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="6" t="s">
         <v>173</v>
       </c>
@@ -4250,7 +4241,7 @@
       </c>
       <c r="J20" s="5">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>157</v>
@@ -4260,7 +4251,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
@@ -4284,7 +4275,7 @@
       </c>
       <c r="J21" s="5">
         <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>155</v>
@@ -4294,7 +4285,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="8" t="s">
         <v>172</v>
       </c>
@@ -4318,7 +4309,7 @@
       </c>
       <c r="J22" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>159</v>
@@ -4328,7 +4319,7 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="6" t="s">
         <v>171</v>
       </c>
@@ -4352,7 +4343,7 @@
       </c>
       <c r="J23" s="5">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>176</v>
@@ -4362,7 +4353,7 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="55"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="8" t="s">
         <v>172</v>
       </c>
@@ -4386,7 +4377,7 @@
       </c>
       <c r="J24" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>156</v>
@@ -4396,7 +4387,7 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="55"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="6" t="s">
         <v>17</v>
       </c>
@@ -4420,7 +4411,7 @@
       </c>
       <c r="J25" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>153</v>
@@ -4430,7 +4421,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="55"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
@@ -4454,7 +4445,7 @@
       </c>
       <c r="J26" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>160</v>
@@ -4464,7 +4455,7 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="6" t="s">
         <v>21</v>
       </c>
@@ -4488,7 +4479,7 @@
       </c>
       <c r="J27" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>161</v>
@@ -4498,7 +4489,7 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="6" t="s">
         <v>22</v>
       </c>
@@ -4522,7 +4513,7 @@
       </c>
       <c r="J28" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>162</v>
@@ -4532,7 +4523,7 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="6" t="s">
         <v>23</v>
       </c>
@@ -4556,7 +4547,7 @@
       </c>
       <c r="J29" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>163</v>
@@ -4566,7 +4557,7 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="55"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="6" t="s">
         <v>24</v>
       </c>
@@ -4590,7 +4581,7 @@
       </c>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>164</v>
@@ -4600,7 +4591,7 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="55"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="6" t="s">
         <v>13</v>
       </c>
@@ -4624,7 +4615,7 @@
       </c>
       <c r="J31" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>147</v>
@@ -4634,7 +4625,7 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
@@ -4658,7 +4649,7 @@
       </c>
       <c r="J32" s="5">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>150</v>
@@ -4668,7 +4659,7 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="55"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="10" t="s">
         <v>190</v>
       </c>
@@ -4690,7 +4681,7 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="55"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="10" t="s">
         <v>263</v>
       </c>
@@ -4707,60 +4698,69 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51">
+      <c r="A35" s="48">
         <v>34</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="48" t="s">
+      <c r="B35" s="52"/>
+      <c r="C35" s="45" t="s">
         <v>290</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="40" t="s">
         <v>288</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="51">
+      <c r="I35" s="48">
         <v>1</v>
       </c>
-      <c r="J35" s="37"/>
+      <c r="J35" s="5">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
       <c r="K35" s="6"/>
-      <c r="L35" s="45" t="s">
+      <c r="L35" s="42" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="41" t="s">
         <v>286</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="43"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K36" s="6"/>
-      <c r="L36" s="46"/>
+      <c r="L36" s="43"/>
     </row>
     <row r="37" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="50"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="37" t="s">
         <v>287</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="38"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K37" s="6"/>
-      <c r="L37" s="40" t="s">
+      <c r="L37" s="38" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       <c r="A38" s="36">
         <v>35</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="44" t="s">
         <v>280</v>
       </c>
       <c r="C38" s="28" t="s">
@@ -4792,9 +4792,9 @@
       <c r="I38" s="29">
         <v>1</v>
       </c>
-      <c r="J38" s="29">
-        <f>I38*1500</f>
-        <v>1500</v>
+      <c r="J38" s="5">
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="K38" s="30"/>
     </row>
@@ -4802,7 +4802,7 @@
       <c r="A39" s="36">
         <v>36</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="28" t="s">
         <v>186</v>
       </c>
@@ -4816,9 +4816,9 @@
       <c r="I39" s="29">
         <v>1</v>
       </c>
-      <c r="J39" s="29">
-        <f t="shared" ref="J39:J41" si="1">I39*1500</f>
-        <v>1500</v>
+      <c r="J39" s="5">
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="K39" s="30"/>
     </row>
@@ -4826,7 +4826,7 @@
       <c r="A40" s="36">
         <v>37</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="28" t="s">
         <v>188</v>
       </c>
@@ -4838,9 +4838,9 @@
       <c r="I40" s="29">
         <v>1</v>
       </c>
-      <c r="J40" s="29">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+      <c r="J40" s="5">
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="K40" s="30"/>
     </row>
@@ -4848,7 +4848,7 @@
       <c r="A41" s="36">
         <v>38</v>
       </c>
-      <c r="B41" s="47"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="28" t="s">
         <v>189</v>
       </c>
@@ -4862,9 +4862,9 @@
       <c r="I41" s="29">
         <v>1</v>
       </c>
-      <c r="J41" s="29">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+      <c r="J41" s="5">
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="K41" s="30"/>
     </row>
@@ -6600,11 +6600,11 @@
       <c r="A1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -6861,18 +6861,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -6947,47 +6947,47 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
     </row>
     <row r="21" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="59" t="s">
         <v>253</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -6995,19 +6995,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="21" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="21" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="21" t="s">
         <v>260</v>
       </c>
@@ -7067,10 +7067,10 @@
       <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>272</v>
       </c>
       <c r="D2" s="23"/>
@@ -7079,78 +7079,78 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="23"/>
       <c r="E3" s="24" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="23"/>
       <c r="E4" s="24" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="23"/>
       <c r="E5" s="24" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="23"/>
     </row>
   </sheetData>
